--- a/DataSheet/SKYLO.xlsx
+++ b/DataSheet/SKYLO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167416E1-F366-4E77-B98A-90C3702D34B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5343FB8C-1A1E-419C-9DB4-AEDD4060FF59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{B6804DF4-53AD-4802-B7C6-B537CE4E9FC7}"/>
   </bookViews>
@@ -7656,8 +7656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4988CF70-88B3-46EA-A899-B6C93D997390}">
   <dimension ref="A1:BT20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:BT6"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13360,8 +13360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18FFDBB-B3E4-417C-8068-C9382AB2411D}">
   <dimension ref="A1:BU9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BU1" sqref="A1:BU1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:BU8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14255,890 +14255,6 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:73" ht="51.75">
-      <c r="A5" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="34">
-        <v>444</v>
-      </c>
-      <c r="C5" s="34">
-        <v>1</v>
-      </c>
-      <c r="D5" s="34">
-        <v>1</v>
-      </c>
-      <c r="E5" s="34">
-        <v>1</v>
-      </c>
-      <c r="F5" s="34">
-        <v>1</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="34">
-        <v>0</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="34">
-        <v>70</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" s="34">
-        <v>1</v>
-      </c>
-      <c r="N5" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" s="35">
-        <v>300</v>
-      </c>
-      <c r="P5" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="R5" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="S5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="T5" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="U5" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="V5" s="34">
-        <v>1</v>
-      </c>
-      <c r="W5" s="34">
-        <v>13</v>
-      </c>
-      <c r="X5" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y5" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z5" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA5" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD5" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE5" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF5" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ5" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL5" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM5" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN5" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO5" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP5" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR5" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="AS5" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="AT5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU5" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV5" s="34">
-        <v>5</v>
-      </c>
-      <c r="AW5" s="34">
-        <v>400</v>
-      </c>
-      <c r="AX5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY5" s="34">
-        <v>100</v>
-      </c>
-      <c r="AZ5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB5" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="BC5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD5" s="34">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="34">
-        <v>1200</v>
-      </c>
-      <c r="BF5" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM5" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="BN5" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO5" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="BP5" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="BQ5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="BS5" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT5" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU5" s="34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:73" ht="64.5">
-      <c r="A6" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="32">
-        <v>55</v>
-      </c>
-      <c r="C6" s="32">
-        <v>1</v>
-      </c>
-      <c r="D6" s="32">
-        <v>1</v>
-      </c>
-      <c r="E6" s="32">
-        <v>2</v>
-      </c>
-      <c r="F6" s="32">
-        <v>1</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="32">
-        <v>0</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="32">
-        <v>70</v>
-      </c>
-      <c r="L6" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" s="34">
-        <v>1</v>
-      </c>
-      <c r="N6" s="32">
-        <v>20</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" s="31">
-        <v>30</v>
-      </c>
-      <c r="R6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="S6" s="32">
-        <v>30</v>
-      </c>
-      <c r="T6" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="U6" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="V6" s="32">
-        <v>1</v>
-      </c>
-      <c r="W6" s="32">
-        <v>15</v>
-      </c>
-      <c r="X6" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y6" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z6" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA6" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD6" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF6" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH6" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI6" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="AJ6" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN6" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="AO6" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP6" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="AQ6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR6" s="32">
-        <v>66</v>
-      </c>
-      <c r="AS6" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="AT6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU6" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV6" s="32">
-        <v>10</v>
-      </c>
-      <c r="AW6" s="32">
-        <v>500</v>
-      </c>
-      <c r="AX6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY6" s="32">
-        <v>1000</v>
-      </c>
-      <c r="AZ6" s="32">
-        <v>1010123456001</v>
-      </c>
-      <c r="BA6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB6" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="BC6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD6" s="32">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="32">
-        <v>600</v>
-      </c>
-      <c r="BF6" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="BG6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BS6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU6" s="31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:73" ht="64.5">
-      <c r="A7" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B7" s="32">
-        <v>55</v>
-      </c>
-      <c r="C7" s="32">
-        <v>1</v>
-      </c>
-      <c r="D7" s="32">
-        <v>1</v>
-      </c>
-      <c r="E7" s="32">
-        <v>2</v>
-      </c>
-      <c r="F7" s="32">
-        <v>1</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="32">
-        <v>0</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="32">
-        <v>70</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" s="34">
-        <v>1</v>
-      </c>
-      <c r="N7" s="32">
-        <v>20</v>
-      </c>
-      <c r="O7" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q7" s="31">
-        <v>30</v>
-      </c>
-      <c r="R7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="S7" s="32">
-        <v>30</v>
-      </c>
-      <c r="T7" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="U7" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="V7" s="32">
-        <v>1</v>
-      </c>
-      <c r="W7" s="32">
-        <v>15</v>
-      </c>
-      <c r="X7" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y7" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z7" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA7" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD7" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF7" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH7" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI7" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="AJ7" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN7" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="AO7" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP7" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ7" s="32">
-        <v>188</v>
-      </c>
-      <c r="AR7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS7" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="AT7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU7" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="AV7" s="32">
-        <v>10</v>
-      </c>
-      <c r="AW7" s="32">
-        <v>500</v>
-      </c>
-      <c r="AX7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY7" s="32">
-        <v>1000</v>
-      </c>
-      <c r="AZ7" s="32">
-        <v>1010123456001</v>
-      </c>
-      <c r="BA7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB7" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="BC7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD7" s="32">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="32">
-        <v>600</v>
-      </c>
-      <c r="BF7" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="BG7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BL7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BS7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT7" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU7" s="31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:73" ht="75">
-      <c r="A8" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="32">
-        <v>4</v>
-      </c>
-      <c r="C8" s="32">
-        <v>1</v>
-      </c>
-      <c r="D8" s="32">
-        <v>1</v>
-      </c>
-      <c r="E8" s="32">
-        <v>2</v>
-      </c>
-      <c r="F8" s="32">
-        <v>1</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="32">
-        <v>0</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" s="32">
-        <v>70</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" s="32">
-        <v>1</v>
-      </c>
-      <c r="N8" s="32">
-        <v>20</v>
-      </c>
-      <c r="O8" s="32">
-        <v>300</v>
-      </c>
-      <c r="P8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="R8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="S8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="T8" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="U8" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="V8" s="32">
-        <v>2</v>
-      </c>
-      <c r="W8" s="32">
-        <v>13</v>
-      </c>
-      <c r="X8" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y8" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z8" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA8" s="32">
-        <v>12</v>
-      </c>
-      <c r="AB8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD8" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF8" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH8" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI8" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="AJ8" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN8" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO8" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="AP8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT8" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="AU8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV8" s="32">
-        <v>10</v>
-      </c>
-      <c r="AW8" s="32">
-        <v>100</v>
-      </c>
-      <c r="AX8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ8" s="32">
-        <v>1010123456001</v>
-      </c>
-      <c r="BA8" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="BB8" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC8" s="32">
-        <v>1</v>
-      </c>
-      <c r="BD8" s="32">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="32">
-        <v>600</v>
-      </c>
-      <c r="BF8" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="BG8" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="BH8" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="BI8" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="BJ8" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="BK8" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="BL8" s="32">
-        <v>16000</v>
-      </c>
-      <c r="BM8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BS8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT8" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="BU8" s="31" t="s">
-        <v>70</v>
-      </c>
-    </row>
     <row r="9" spans="1:73" ht="75">
       <c r="A9" s="31" t="s">
         <v>180</v>
@@ -15363,11 +14479,10 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="BT8" r:id="rId1" display="http://ims.mnc001.mcc001.3gppnetwork.org/" xr:uid="{6F80966B-E048-4822-96E5-7D7B35E68C92}"/>
-    <hyperlink ref="BT9" r:id="rId2" display="http://ims.mnc001.mcc001.3gppnetwork.org/" xr:uid="{EDF68285-B975-416D-8E1F-CF9E1A975354}"/>
+    <hyperlink ref="BT9" r:id="rId1" display="http://ims.mnc001.mcc001.3gppnetwork.org/" xr:uid="{EDF68285-B975-416D-8E1F-CF9E1A975354}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16055,10 +15170,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD145C3-4F3F-4E2F-8C55-BA81369F7A36}">
-  <dimension ref="A1:BU2"/>
+  <dimension ref="A1:BU14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BG2" sqref="BG2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:BU14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16505,9 +15620,894 @@
         <v>70</v>
       </c>
     </row>
+    <row r="11" spans="1:73" ht="51.75">
+      <c r="A11" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="34">
+        <v>444</v>
+      </c>
+      <c r="C11" s="34">
+        <v>1</v>
+      </c>
+      <c r="D11" s="34">
+        <v>1</v>
+      </c>
+      <c r="E11" s="34">
+        <v>1</v>
+      </c>
+      <c r="F11" s="34">
+        <v>1</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="34">
+        <v>0</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="34">
+        <v>70</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="34">
+        <v>1</v>
+      </c>
+      <c r="N11" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="35">
+        <v>300</v>
+      </c>
+      <c r="P11" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="R11" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="S11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="T11" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="U11" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="V11" s="34">
+        <v>1</v>
+      </c>
+      <c r="W11" s="34">
+        <v>13</v>
+      </c>
+      <c r="X11" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y11" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z11" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA11" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD11" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE11" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF11" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ11" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL11" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM11" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN11" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO11" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP11" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR11" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="AS11" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU11" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV11" s="34">
+        <v>5</v>
+      </c>
+      <c r="AW11" s="34">
+        <v>400</v>
+      </c>
+      <c r="AX11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY11" s="34">
+        <v>100</v>
+      </c>
+      <c r="AZ11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB11" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD11" s="34">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="34">
+        <v>1200</v>
+      </c>
+      <c r="BF11" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM11" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="BN11" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO11" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="BP11" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="BQ11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="BS11" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU11" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:73" ht="64.5">
+      <c r="A12" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="32">
+        <v>55</v>
+      </c>
+      <c r="C12" s="32">
+        <v>1</v>
+      </c>
+      <c r="D12" s="32">
+        <v>1</v>
+      </c>
+      <c r="E12" s="32">
+        <v>2</v>
+      </c>
+      <c r="F12" s="32">
+        <v>1</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="32">
+        <v>0</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="32">
+        <v>70</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="34">
+        <v>1</v>
+      </c>
+      <c r="N12" s="32">
+        <v>20</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="31">
+        <v>30</v>
+      </c>
+      <c r="R12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="S12" s="32">
+        <v>30</v>
+      </c>
+      <c r="T12" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="U12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="V12" s="32">
+        <v>1</v>
+      </c>
+      <c r="W12" s="32">
+        <v>15</v>
+      </c>
+      <c r="X12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y12" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z12" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA12" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD12" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF12" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH12" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI12" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ12" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN12" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO12" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR12" s="32">
+        <v>66</v>
+      </c>
+      <c r="AS12" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU12" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV12" s="32">
+        <v>10</v>
+      </c>
+      <c r="AW12" s="32">
+        <v>500</v>
+      </c>
+      <c r="AX12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY12" s="32">
+        <v>1000</v>
+      </c>
+      <c r="AZ12" s="32">
+        <v>1010123456001</v>
+      </c>
+      <c r="BA12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB12" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD12" s="32">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="32">
+        <v>600</v>
+      </c>
+      <c r="BF12" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="BG12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BN12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BS12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU12" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:73" ht="64.5">
+      <c r="A13" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="32">
+        <v>55</v>
+      </c>
+      <c r="C13" s="32">
+        <v>1</v>
+      </c>
+      <c r="D13" s="32">
+        <v>1</v>
+      </c>
+      <c r="E13" s="32">
+        <v>2</v>
+      </c>
+      <c r="F13" s="32">
+        <v>1</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="32">
+        <v>0</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="32">
+        <v>70</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="34">
+        <v>1</v>
+      </c>
+      <c r="N13" s="32">
+        <v>20</v>
+      </c>
+      <c r="O13" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="31">
+        <v>30</v>
+      </c>
+      <c r="R13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="S13" s="32">
+        <v>30</v>
+      </c>
+      <c r="T13" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="U13" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="V13" s="32">
+        <v>1</v>
+      </c>
+      <c r="W13" s="32">
+        <v>15</v>
+      </c>
+      <c r="X13" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y13" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z13" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA13" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD13" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF13" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH13" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI13" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ13" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN13" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="AO13" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP13" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ13" s="32">
+        <v>188</v>
+      </c>
+      <c r="AR13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS13" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU13" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV13" s="32">
+        <v>10</v>
+      </c>
+      <c r="AW13" s="32">
+        <v>500</v>
+      </c>
+      <c r="AX13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY13" s="32">
+        <v>1000</v>
+      </c>
+      <c r="AZ13" s="32">
+        <v>1010123456001</v>
+      </c>
+      <c r="BA13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB13" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD13" s="32">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="32">
+        <v>600</v>
+      </c>
+      <c r="BF13" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="BG13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BK13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BL13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BN13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BS13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT13" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU13" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:73" ht="75">
+      <c r="A14" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="32">
+        <v>4</v>
+      </c>
+      <c r="C14" s="32">
+        <v>1</v>
+      </c>
+      <c r="D14" s="32">
+        <v>1</v>
+      </c>
+      <c r="E14" s="32">
+        <v>2</v>
+      </c>
+      <c r="F14" s="32">
+        <v>1</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="32">
+        <v>0</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="32">
+        <v>70</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="32">
+        <v>1</v>
+      </c>
+      <c r="N14" s="32">
+        <v>20</v>
+      </c>
+      <c r="O14" s="32">
+        <v>300</v>
+      </c>
+      <c r="P14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="R14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="S14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="T14" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="U14" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="V14" s="32">
+        <v>2</v>
+      </c>
+      <c r="W14" s="32">
+        <v>13</v>
+      </c>
+      <c r="X14" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y14" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z14" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA14" s="32">
+        <v>12</v>
+      </c>
+      <c r="AB14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD14" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF14" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH14" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI14" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ14" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN14" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO14" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT14" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV14" s="32">
+        <v>10</v>
+      </c>
+      <c r="AW14" s="32">
+        <v>100</v>
+      </c>
+      <c r="AX14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ14" s="32">
+        <v>1010123456001</v>
+      </c>
+      <c r="BA14" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="BB14" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="BC14" s="32">
+        <v>1</v>
+      </c>
+      <c r="BD14" s="32">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="32">
+        <v>600</v>
+      </c>
+      <c r="BF14" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="BG14" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="BH14" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="BI14" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ14" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="BK14" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="BL14" s="32">
+        <v>16000</v>
+      </c>
+      <c r="BM14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BN14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BS14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT14" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="BU14" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="BT2" r:id="rId1" display="http://ims.mnc001.mcc001.3gppnetwork.org/" xr:uid="{26559860-9B17-404E-AC0E-C628DD98197D}"/>
+    <hyperlink ref="BT14" r:id="rId2" display="http://ims.mnc001.mcc001.3gppnetwork.org/" xr:uid="{6F80966B-E048-4822-96E5-7D7B35E68C92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataSheet/SKYLO.xlsx
+++ b/DataSheet/SKYLO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Simnovus\CP_Jenkins\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5343FB8C-1A1E-419C-9DB4-AEDD4060FF59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20353DCE-1094-45AF-8297-AF98CC58CD97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{B6804DF4-53AD-4802-B7C6-B537CE4E9FC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{B6804DF4-53AD-4802-B7C6-B537CE4E9FC7}"/>
   </bookViews>
   <sheets>
     <sheet name="SKYLO" sheetId="1" r:id="rId1"/>
@@ -13358,10 +13358,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18FFDBB-B3E4-417C-8068-C9382AB2411D}">
-  <dimension ref="A1:BU9"/>
+  <dimension ref="A1:BU4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:BU8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14255,234 +14255,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:73" ht="75">
-      <c r="A9" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="B9" s="32">
-        <v>4</v>
-      </c>
-      <c r="C9" s="32">
-        <v>1</v>
-      </c>
-      <c r="D9" s="32">
-        <v>1</v>
-      </c>
-      <c r="E9" s="32">
-        <v>2</v>
-      </c>
-      <c r="F9" s="32">
-        <v>1</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="32">
-        <v>0</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="32">
-        <v>70</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" s="32">
-        <v>1</v>
-      </c>
-      <c r="N9" s="32">
-        <v>20</v>
-      </c>
-      <c r="O9" s="32">
-        <v>300</v>
-      </c>
-      <c r="P9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="R9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="S9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="T9" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="U9" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="V9" s="32">
-        <v>32</v>
-      </c>
-      <c r="W9" s="32">
-        <v>13</v>
-      </c>
-      <c r="X9" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y9" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z9" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA9" s="32">
-        <v>12</v>
-      </c>
-      <c r="AB9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD9" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF9" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH9" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI9" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="AJ9" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN9" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO9" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="AP9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT9" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="AU9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV9" s="32">
-        <v>10</v>
-      </c>
-      <c r="AW9" s="32">
-        <v>300</v>
-      </c>
-      <c r="AX9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ9" s="32">
-        <v>1010123456001</v>
-      </c>
-      <c r="BA9" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="BB9" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC9" s="32">
-        <v>1</v>
-      </c>
-      <c r="BD9" s="32">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="32">
-        <v>600</v>
-      </c>
-      <c r="BF9" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="BG9" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="BH9" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="BI9" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="BJ9" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="BK9" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="BL9" s="32">
-        <v>16000</v>
-      </c>
-      <c r="BM9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BS9" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT9" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="BU9" s="31" t="s">
-        <v>70</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="BT9" r:id="rId1" display="http://ims.mnc001.mcc001.3gppnetwork.org/" xr:uid="{EDF68285-B975-416D-8E1F-CF9E1A975354}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15170,10 +14946,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD145C3-4F3F-4E2F-8C55-BA81369F7A36}">
-  <dimension ref="A1:BU14"/>
+  <dimension ref="A1:BU15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:BU14"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:BU15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16504,10 +16280,232 @@
         <v>70</v>
       </c>
     </row>
+    <row r="15" spans="1:73" ht="75">
+      <c r="A15" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="32">
+        <v>4</v>
+      </c>
+      <c r="C15" s="32">
+        <v>1</v>
+      </c>
+      <c r="D15" s="32">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32">
+        <v>2</v>
+      </c>
+      <c r="F15" s="32">
+        <v>1</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="32">
+        <v>0</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="32">
+        <v>70</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="32">
+        <v>1</v>
+      </c>
+      <c r="N15" s="32">
+        <v>20</v>
+      </c>
+      <c r="O15" s="32">
+        <v>300</v>
+      </c>
+      <c r="P15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="R15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="S15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="T15" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="U15" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="V15" s="32">
+        <v>32</v>
+      </c>
+      <c r="W15" s="32">
+        <v>13</v>
+      </c>
+      <c r="X15" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y15" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z15" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA15" s="32">
+        <v>12</v>
+      </c>
+      <c r="AB15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD15" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF15" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH15" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI15" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="AJ15" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN15" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO15" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT15" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV15" s="32">
+        <v>10</v>
+      </c>
+      <c r="AW15" s="32">
+        <v>300</v>
+      </c>
+      <c r="AX15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ15" s="32">
+        <v>1010123456001</v>
+      </c>
+      <c r="BA15" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="BB15" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="BC15" s="32">
+        <v>1</v>
+      </c>
+      <c r="BD15" s="32">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="32">
+        <v>600</v>
+      </c>
+      <c r="BF15" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="BG15" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="BH15" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="BI15" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ15" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="BK15" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="BL15" s="32">
+        <v>16000</v>
+      </c>
+      <c r="BM15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BN15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BS15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT15" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="BU15" s="31" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="BT2" r:id="rId1" display="http://ims.mnc001.mcc001.3gppnetwork.org/" xr:uid="{26559860-9B17-404E-AC0E-C628DD98197D}"/>
     <hyperlink ref="BT14" r:id="rId2" display="http://ims.mnc001.mcc001.3gppnetwork.org/" xr:uid="{6F80966B-E048-4822-96E5-7D7B35E68C92}"/>
+    <hyperlink ref="BT15" r:id="rId3" display="http://ims.mnc001.mcc001.3gppnetwork.org/" xr:uid="{EDF68285-B975-416D-8E1F-CF9E1A975354}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
